--- a/Source Files/Processed FEDIAP INFOODS.xlsx
+++ b/Source Files/Processed FEDIAP INFOODS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\Nutrient-Limits\Source Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FEF67E-DAA9-41A1-BEF2-222DD1F100FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2402683C-BD02-4524-84D2-DB16A297D6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{94DBCC62-8118-420D-A5C2-B4D50E79F4AD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{94DBCC62-8118-420D-A5C2-B4D50E79F4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Limits" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="114">
   <si>
     <t>Nutrient</t>
   </si>
@@ -462,9 +462,6 @@
     <t>w6/w3</t>
   </si>
   <si>
-    <t>Infood</t>
-  </si>
-  <si>
     <t>wrat is more complex than shown and is the sum of the w6 fatty acids over the sum of the w3 fatty acids</t>
   </si>
   <si>
@@ -517,13 +514,46 @@
   </si>
   <si>
     <t>suggests it may not affect zn absorptipns</t>
+  </si>
+  <si>
+    <t>InFoods</t>
+  </si>
+  <si>
+    <t>Caproic Acid</t>
+  </si>
+  <si>
+    <t>F6D0</t>
+  </si>
+  <si>
+    <t>Caprylic Acid</t>
+  </si>
+  <si>
+    <t>Capric Acid</t>
+  </si>
+  <si>
+    <t>Lauric Acid</t>
+  </si>
+  <si>
+    <t>F12D0</t>
+  </si>
+  <si>
+    <t>F10D0</t>
+  </si>
+  <si>
+    <t>F8D0F</t>
+  </si>
+  <si>
+    <t>F6D0,F8D0F,F12D0,F10D0</t>
+  </si>
+  <si>
+    <t>Medium Chain Tryglycierides</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,6 +592,13 @@
       <color rgb="FF00BBE3"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -623,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -723,18 +760,10 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1168,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033E5ECE-D831-43A8-AC93-A120336B57AF}">
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1192,13 +1221,13 @@
   <sheetData>
     <row r="1" spans="1:15" s="7" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -1388,7 +1417,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10" t="s">
@@ -1417,7 +1446,7 @@
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -1429,7 +1458,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10" t="s">
@@ -1536,7 +1565,7 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
@@ -1967,24 +1996,24 @@
       <c r="B23" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="22" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
       <c r="K23" s="19"/>
       <c r="L23" s="20"/>
       <c r="M23" s="19"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
-        <v>675</v>
+        <v>825</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>42</v>
@@ -2056,7 +2085,7 @@
         <v>42</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="23" t="s">
@@ -2084,8 +2113,8 @@
       <c r="B27" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="35" t="s">
-        <v>91</v>
+      <c r="D27" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="23" t="s">
@@ -2115,7 +2144,7 @@
         <v>84</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="19">
@@ -2327,7 +2356,7 @@
         <v>42</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" s="17" t="s">
@@ -2677,7 +2706,7 @@
       </c>
       <c r="C43" s="28"/>
       <c r="D43" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="17" t="s">
@@ -3221,7 +3250,7 @@
       </c>
       <c r="C59"/>
       <c r="D59" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E59" s="16"/>
       <c r="F59" s="23" t="s">
@@ -3238,11 +3267,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C60"/>
-      <c r="D60" s="16"/>
+    <row r="60" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B60" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>104</v>
+      </c>
       <c r="E60" s="16"/>
-      <c r="F60" s="23"/>
+      <c r="F60" s="23" t="s">
+        <v>18</v>
+      </c>
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -3251,11 +3289,20 @@
       <c r="L60" s="20"/>
       <c r="M60" s="19"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C61"/>
-      <c r="D61" s="16"/>
+    <row r="61" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B61" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="E61" s="16"/>
-      <c r="F61" s="23"/>
+      <c r="F61" s="23" t="s">
+        <v>18</v>
+      </c>
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -3264,27 +3311,85 @@
       <c r="L61" s="20"/>
       <c r="M61" s="19"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C62"/>
-    </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="C63" t="s">
+    <row r="62" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B62" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="C63" s="36" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="C64"/>
-    </row>
-    <row r="65" spans="3:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="C65"/>
-    </row>
-    <row r="66" spans="3:3" hidden="1" x14ac:dyDescent="0.35">
-      <c r="C66" t="s">
+    <row r="64" spans="1:15" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="C64" s="36"/>
+    </row>
+    <row r="65" spans="2:15" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="C65" s="36"/>
+    </row>
+    <row r="66" spans="2:15" ht="18.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="C66" s="36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.35"/>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.35"/>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B67" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F67" s="31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B68" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G68" s="32">
+        <v>3</v>
+      </c>
+      <c r="H68" s="33">
+        <v>3</v>
+      </c>
+      <c r="I68" s="32">
+        <v>3</v>
+      </c>
+      <c r="J68" s="32">
+        <v>3</v>
+      </c>
+      <c r="K68" s="31">
+        <v>7</v>
+      </c>
+      <c r="L68" s="34">
+        <v>7</v>
+      </c>
+      <c r="M68" s="32">
+        <v>7</v>
+      </c>
+      <c r="O68" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3303,40 +3408,40 @@
   <sheetData>
     <row r="15" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="3:11" ht="82.5" x14ac:dyDescent="0.35">
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.35">
       <c r="E38" t="s">
+        <v>101</v>
+      </c>
+      <c r="K38" t="s">
         <v>102</v>
-      </c>
-      <c r="K38" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3350,7 +3455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0016D0-A639-41CB-8AC6-111F47F9DA24}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
